--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,1882 +463,1901 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K', 'N']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 12, 16], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['N', 'K'], 'temporal_postfix': [2, 1, 1], 'spatial_postfix': [3, 2], 'temporal_value': [2, 512, 4], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>-301600768</v>
+        <v>-14167040.0625</v>
       </c>
       <c r="D2" t="n">
-        <v>-14814.249375</v>
+        <v>-18603.150625</v>
       </c>
       <c r="E2" t="n">
-        <v>5362166337085.44</v>
+        <v>418611956602.5225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 12, 32], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 1, 2], 'spatial_postfix': [2, 2, 3], 'temporal_value': [8, 128, 2], 'spatial_value': [32, 4, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>-383836160</v>
+        <v>-17891072.03125</v>
       </c>
       <c r="D3" t="n">
-        <v>-17709.04375</v>
+        <v>-17474.1878125</v>
       </c>
       <c r="E3" t="n">
-        <v>8556388102144</v>
+        <v>358146673358.6716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['N', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [1, 1], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [2, 2, 2], 'spatial_postfix': [3, 3], 'temporal_value': [16, 8, 6], 'spatial_value': [32, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>-325005312</v>
+        <v>-14893568.03125</v>
       </c>
       <c r="D4" t="n">
-        <v>-14344.5303125</v>
+        <v>-14894.175625</v>
       </c>
       <c r="E4" t="n">
-        <v>5681474213806.08</v>
+        <v>294383299242.9369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['N']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 16, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['C', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 1], 'temporal_value': [2, 12], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'K'], 'spatial': ['N', 'C'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 3], 'temporal_value': [16, 16], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>-288866304</v>
+        <v>-19193600</v>
       </c>
       <c r="D5" t="n">
-        <v>-16727.6746875</v>
+        <v>-18301.324375</v>
       </c>
       <c r="E5" t="n">
-        <v>8540896536657.92</v>
+        <v>402793279472.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K', 'C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 32, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [2, 3], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'K'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 3], 'spatial_postfix': [2, 3], 'temporal_value': [64, 16], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>-258199552</v>
+        <v>-15450112.0625</v>
       </c>
       <c r="D6" t="n">
-        <v>-13583.715</v>
+        <v>-27541.866875</v>
       </c>
       <c r="E6" t="n">
-        <v>3914733767311.36</v>
+        <v>1347600058720.771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [4, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'N'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 2], 'temporal_value': [2, 96], 'spatial_value': [64, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>-253591552</v>
+        <v>-16275456</v>
       </c>
       <c r="D7" t="n">
-        <v>-14783.460625</v>
+        <v>-16993.9965625</v>
       </c>
       <c r="E7" t="n">
-        <v>4469614450114.56</v>
+        <v>338094910156.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 8, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [3], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [3, 1, 1], 'spatial_postfix': [4, 2], 'temporal_value': [2, 32, 64], 'spatial_value': [16, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>-313638912</v>
+        <v>-16813312.0625</v>
       </c>
       <c r="D8" t="n">
-        <v>-13188.111875</v>
+        <v>-24138.4671875</v>
       </c>
       <c r="E8" t="n">
-        <v>3965545759539.2</v>
+        <v>942693149059.2382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 32, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [2, 3], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'N'], 'temporal_postfix': [2, 2, 2], 'spatial_postfix': [3, 3], 'temporal_value': [4, 32, 4], 'spatial_value': [16, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>-345370624</v>
+        <v>-17437952.0625</v>
       </c>
       <c r="D9" t="n">
-        <v>-17146.0534375</v>
+        <v>-22853.76625</v>
       </c>
       <c r="E9" t="n">
-        <v>8161239807590.4</v>
+        <v>483961781316.5709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 32, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [2, 8], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'C', 'K'], 'temporal_postfix': [2, 2], 'spatial_postfix': [2, 3, 3], 'temporal_value': [32, 6], 'spatial_value': [64, 2, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-318414848</v>
+        <v>-15581696.125</v>
       </c>
       <c r="D10" t="n">
-        <v>-14615.758125</v>
+        <v>-15602.24875</v>
       </c>
       <c r="E10" t="n">
-        <v>5812603793244.16</v>
+        <v>293616108729.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 6, 32], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 2, 1], 'spatial_postfix': [2, 2], 'temporal_value': [16, 4, 32], 'spatial_value': [32, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>-184303616</v>
+        <v>-16354816.0625</v>
       </c>
       <c r="D11" t="n">
-        <v>-13881.100625</v>
+        <v>-21313.1696875</v>
       </c>
       <c r="E11" t="n">
-        <v>2795474008473.6</v>
+        <v>409964667546.1366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 8, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [4, 64], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'N'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 2], 'temporal_value': [12, 4], 'spatial_value': [8, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>-301056000</v>
+        <v>-18024192.0625</v>
       </c>
       <c r="D12" t="n">
-        <v>-15507.831875</v>
+        <v>-25262.9534375</v>
       </c>
       <c r="E12" t="n">
-        <v>4863154137825.28</v>
+        <v>807603828574.9343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'N']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [64, 6, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'N', 'K'], 'spatial': ['N', 'K'], 'temporal_postfix': [1, 1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [2, 8, 2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [3, 2], 'spatial_postfix': [4, 3, 3], 'temporal_value': [32, 2], 'spatial_value': [4, 4, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>-356122624</v>
+        <v>-12002048.09375</v>
       </c>
       <c r="D13" t="n">
-        <v>-15661.999375</v>
+        <v>-17295.936875</v>
       </c>
       <c r="E13" t="n">
-        <v>6288956151070.72</v>
+        <v>254474923768.985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 2, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['K'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [128, 12], 'spatial_value': [128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>-329580544</v>
+        <v>-21511936.03125</v>
       </c>
       <c r="D14" t="n">
-        <v>-16706.1046875</v>
+        <v>-19894.13</v>
       </c>
       <c r="E14" t="n">
-        <v>8594125148160</v>
+        <v>709399752963.2097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'N'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 2, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C', 'N'], 'temporal_postfix': [1], 'spatial_postfix': [1, 2], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2], 'temporal_value': [96, 64], 'spatial_value': [16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>-250953728</v>
+        <v>-15946240</v>
       </c>
       <c r="D15" t="n">
-        <v>-14878.1615625</v>
+        <v>-19752.554375</v>
       </c>
       <c r="E15" t="n">
-        <v>4950258795888.64</v>
+        <v>429589747399.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C', 'N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [128, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['K'], 'temporal_postfix': [1, 0], 'spatial_postfix': [2], 'temporal_value': [16, 8], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [1, 3], 'spatial_postfix': [2, 4, 1], 'temporal_value': [4, 12], 'spatial_value': [16, 2, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>-165953536</v>
+        <v>-17195008.03125</v>
       </c>
       <c r="D16" t="n">
-        <v>-14289.5171875</v>
+        <v>-20208.7946875</v>
       </c>
       <c r="E16" t="n">
-        <v>2772457096478.72</v>
+        <v>415712612549.1578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': ['N'], 'spatial': []}, 'InputBuffer': {'temporal': ['N', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 192], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [2, 2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [3, 0, 3], 'spatial_postfix': [4, 1, 4], 'temporal_value': [2, 32, 8], 'spatial_value': [2, 16, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>-245661696</v>
+        <v>-17840128.03125</v>
       </c>
       <c r="D17" t="n">
-        <v>-13633.8384375</v>
+        <v>-18145.5775</v>
       </c>
       <c r="E17" t="n">
-        <v>3482534805995.52</v>
+        <v>347337016553.5016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 16, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [3, 2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'N'], 'temporal_postfix': [3, 1, 3], 'spatial_postfix': [4, 2], 'temporal_value': [2, 8, 64], 'spatial_value': [64, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>-275767296</v>
+        <v>-17005056.0625</v>
       </c>
       <c r="D18" t="n">
-        <v>-19598.186875</v>
+        <v>-15973.5659375</v>
       </c>
       <c r="E18" t="n">
-        <v>6832083906887.68</v>
+        <v>317228130409.0369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 32, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [2, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [2, 2, 2], 'spatial_postfix': [3, 3, 3], 'temporal_value': [8, 24, 2], 'spatial_value': [16, 8, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>-294584320</v>
+        <v>-14158848.03125</v>
       </c>
       <c r="D19" t="n">
-        <v>-13664.8928125</v>
+        <v>-17264.5090625</v>
       </c>
       <c r="E19" t="n">
-        <v>3999061418311.68</v>
+        <v>303725772137.3047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 32, 6], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2, 2], 'temporal_value': [8, 256], 'spatial_value': [32, 2, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>-353824768</v>
+        <v>-15921920.03125</v>
       </c>
       <c r="D20" t="n">
-        <v>-14994.320625</v>
+        <v>-20085.218125</v>
       </c>
       <c r="E20" t="n">
-        <v>7139501538508.8</v>
+        <v>479987838605.2656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 3], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'N'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [8, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 3, 3], 'temporal_value': [512, 8], 'spatial_value': [2, 2, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>-257480704</v>
+        <v>-12624384.09375</v>
       </c>
       <c r="D21" t="n">
-        <v>-13398.865</v>
+        <v>-16611.4815625</v>
       </c>
       <c r="E21" t="n">
-        <v>4249208246927.36</v>
+        <v>269073397118.415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['N'], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 3], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K'], 'spatial': ['C', 'N'], 'temporal_postfix': [1], 'spatial_postfix': [1, 3], 'temporal_value': [1024], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>-293814272</v>
+        <v>-15239936.09375</v>
       </c>
       <c r="D22" t="n">
-        <v>-15843.944375</v>
+        <v>-19741.186875</v>
       </c>
       <c r="E22" t="n">
-        <v>5325467117649.92</v>
+        <v>388122652759.0587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['N'], 'temporal_postfix': [0], 'spatial_postfix': [1], 'temporal_value': [3], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2, 2], 'temporal_value': [8, 64], 'spatial_value': [8, 16, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>-294993920</v>
+        <v>-14583808.09375</v>
       </c>
       <c r="D23" t="n">
-        <v>-16376.3409375</v>
+        <v>-18496.108125</v>
       </c>
       <c r="E23" t="n">
-        <v>5725479878656</v>
+        <v>381327084657.3334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K']}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C', 'N'], 'spatial': ['C'], 'temporal_postfix': [0, 1, 1], 'spatial_postfix': [2], 'temporal_value': [3, 2, 16], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [2, 1], 'spatial_postfix': [3, 2], 'temporal_value': [2, 16], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>-252059648</v>
+        <v>-14646016.09375</v>
       </c>
       <c r="D24" t="n">
-        <v>-14405.963125</v>
+        <v>-21275.1365625</v>
       </c>
       <c r="E24" t="n">
-        <v>4111193771540.48</v>
+        <v>445421254842.6191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'N'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['C'], 'temporal_postfix': [0, 1], 'spatial_postfix': [1], 'temporal_value': [3, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 3, 2], 'temporal_value': [16, 4], 'spatial_value': [64, 2, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>-232902656</v>
+        <v>-15306560</v>
       </c>
       <c r="D25" t="n">
-        <v>-12872.015</v>
+        <v>-22701.6771875</v>
       </c>
       <c r="E25" t="n">
-        <v>3579853087866.88</v>
+        <v>565077739728.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['N', 'C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['N']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [12, 2, 16], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2, 2], 'temporal_value': [128, 64], 'spatial_value': [2, 8, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>-222355456</v>
+        <v>-13937152.0625</v>
       </c>
       <c r="D26" t="n">
-        <v>-14100.5334375</v>
+        <v>-18489.3025</v>
       </c>
       <c r="E26" t="n">
-        <v>4303206217646.08</v>
+        <v>311405973086.7065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': ['K', 'C', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [12, 2, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['C', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1, 2], 'temporal_value': [4, 4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'K'], 'spatial': ['C'], 'temporal_postfix': [3, 2], 'spatial_postfix': [2], 'temporal_value': [2, 64], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>-354885632</v>
+        <v>-16763648.03125</v>
       </c>
       <c r="D27" t="n">
-        <v>-17773.188125</v>
+        <v>-15933.51</v>
       </c>
       <c r="E27" t="n">
-        <v>8906459421245.439</v>
+        <v>324081243885.2363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [16, 2, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [3], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C'], 'temporal_postfix': [1, 3, 1], 'spatial_postfix': [2], 'temporal_value': [2, 16, 64], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>-359284736</v>
+        <v>-15124224.15625</v>
       </c>
       <c r="D28" t="n">
-        <v>-15055.4421875</v>
+        <v>-25108.7878125</v>
       </c>
       <c r="E28" t="n">
-        <v>6483598821949.439</v>
+        <v>569726328415.984</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 8, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'N'], 'spatial': ['K', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1, 2], 'temporal_value': [8, 8], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['C', 'N'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 3], 'temporal_value': [768, 4], 'spatial_value': [4, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-231456768</v>
+        <v>-18472448.03125</v>
       </c>
       <c r="D29" t="n">
-        <v>-13257.504375</v>
+        <v>-18633.79875</v>
       </c>
       <c r="E29" t="n">
-        <v>3772524669501.44</v>
+        <v>490502254076.1203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [3, 8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1], 'temporal_value': [32, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [2], 'spatial_postfix': [2, 3, 2], 'temporal_value': [64], 'spatial_value': [4, 8, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>-314556416</v>
+        <v>-18641664.0625</v>
       </c>
       <c r="D30" t="n">
-        <v>-16339.9028125</v>
+        <v>-22443.41</v>
       </c>
       <c r="E30" t="n">
-        <v>6688259927080.96</v>
+        <v>463896883304.7247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'N'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [3, 8, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 2, 2], 'spatial_postfix': [2, 3], 'temporal_value': [64, 4, 2], 'spatial_value': [16, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>-264552448</v>
+        <v>-16137728.03125</v>
       </c>
       <c r="D31" t="n">
-        <v>-14569.106875</v>
+        <v>-17122.5621875</v>
       </c>
       <c r="E31" t="n">
-        <v>4664772060774.4</v>
+        <v>301494953320.0737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K', 'N']}, 'WeightBuffer': {'temporal': ['K', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [3, 8, 64], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 1], 'temporal_value': [512, 2], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>-322502656</v>
+        <v>-14987264.0625</v>
       </c>
       <c r="D32" t="n">
-        <v>-13821.63</v>
+        <v>-22692.45625</v>
       </c>
       <c r="E32" t="n">
-        <v>6129102422179.84</v>
+        <v>559304540984.3199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [32, 2, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [3], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['C'], 'temporal_postfix': [1, 3, 1], 'spatial_postfix': [2], 'temporal_value': [256, 8, 2], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-222707712</v>
+        <v>-17364480.15625</v>
       </c>
       <c r="D33" t="n">
-        <v>-16674.4975</v>
+        <v>-19165.23</v>
       </c>
       <c r="E33" t="n">
-        <v>4338918225018.88</v>
+        <v>401868838861.9287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 4, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N', 'C'], 'spatial': ['K'], 'temporal_postfix': [1, 1, 1], 'spatial_postfix': [2], 'temporal_value': [2, 2, 8], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [2, 3], 'spatial_postfix': [3, 4, 2], 'temporal_value': [8, 24], 'spatial_value': [4, 4, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>-254140416</v>
+        <v>-12827392.0625</v>
       </c>
       <c r="D34" t="n">
-        <v>-16481.250625</v>
+        <v>-20678.2140625</v>
       </c>
       <c r="E34" t="n">
-        <v>4803717868339.2</v>
+        <v>461952714069.2428</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': []}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 2, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 1], 'temporal_value': [2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [2, 3, 1], 'spatial_postfix': [3, 2], 'temporal_value': [2, 4, 192], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>-334712832</v>
+        <v>-13890560.0625</v>
       </c>
       <c r="D35" t="n">
-        <v>-14446.928125</v>
+        <v>-14806.206875</v>
       </c>
       <c r="E35" t="n">
-        <v>6072050396692.48</v>
+        <v>262670208072.6787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'C'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [1], 'temporal_value': [3, 8], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'N'], 'temporal_postfix': [2, 2, 1], 'spatial_postfix': [3, 2], 'temporal_value': [2, 64, 2], 'spatial_value': [8, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>-333025280</v>
+        <v>-16811520.0625</v>
       </c>
       <c r="D36" t="n">
-        <v>-17854.3865625</v>
+        <v>-24713.9996875</v>
       </c>
       <c r="E36" t="n">
-        <v>6648157863485.44</v>
+        <v>945092325659.1328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [2, 64, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 1], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 3], 'temporal_value': [384, 8], 'spatial_value': [4, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>-191930368</v>
+        <v>-10950144.09375</v>
       </c>
       <c r="D37" t="n">
-        <v>-11963.5953125</v>
+        <v>-16715.7096875</v>
       </c>
       <c r="E37" t="n">
-        <v>2472598054830.08</v>
+        <v>241235891895.6447</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [3, 64, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['K', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 1], 'temporal_value': [2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'C'], 'temporal_postfix': [2, 3], 'spatial_postfix': [1, 3], 'temporal_value': [8, 256], 'spatial_value': [8, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>32</v>
       </c>
       <c r="C38" t="n">
-        <v>-326008832</v>
+        <v>-11997952.0625</v>
       </c>
       <c r="D38" t="n">
-        <v>-17821.6271875</v>
+        <v>-16087.3878125</v>
       </c>
       <c r="E38" t="n">
-        <v>7180815461089.28</v>
+        <v>244057919099.8865</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [4, 64, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1, 2], 'temporal_value': [2, 4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [2, 2, 3], 'spatial_postfix': [3, 3, 4], 'temporal_value': [12, 2, 4], 'spatial_value': [16, 2, 8]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [4], 'spatial_postfix': [], 'temporal_value': [2], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>-311156736</v>
+        <v>-12152832.15625</v>
       </c>
       <c r="D39" t="n">
-        <v>-17828.24375</v>
+        <v>-15940.1975</v>
       </c>
       <c r="E39" t="n">
-        <v>9482613983477.76</v>
+        <v>218700533769.4753</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [6, 32, 4], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2, 2], 'temporal_value': [16, 128], 'spatial_value': [16, 4, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>-212795392</v>
+        <v>-20637696.09375</v>
       </c>
       <c r="D40" t="n">
-        <v>-14649.1615625</v>
+        <v>-27429.1978125</v>
       </c>
       <c r="E40" t="n">
-        <v>4365600857210.88</v>
+        <v>1183804871685.154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 16, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['K', 'N'], 'temporal_postfix': [1], 'spatial_postfix': [1, 2], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['C'], 'temporal_postfix': [3, 1, 2], 'spatial_postfix': [2], 'temporal_value': [4, 2, 192], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>32</v>
       </c>
       <c r="C41" t="n">
-        <v>-369688576</v>
+        <v>-13217024.09375</v>
       </c>
       <c r="D41" t="n">
-        <v>-17855.57</v>
+        <v>-16296.4590625</v>
       </c>
       <c r="E41" t="n">
-        <v>7307593504931.84</v>
+        <v>273532960394.7362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K'], 'temporal_postfix': [1, 1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [2, 4, 4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [3, 3], 'spatial_postfix': [2, 4, 4], 'temporal_value': [6, 16], 'spatial_value': [4, 8, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>-285782016</v>
+        <v>-14589440.0625</v>
       </c>
       <c r="D42" t="n">
-        <v>-14698.3596875</v>
+        <v>-18081.48625</v>
       </c>
       <c r="E42" t="n">
-        <v>4716724766228.479</v>
+        <v>406987249091.1203</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['N', 'K'], 'temporal_postfix': [1], 'spatial_postfix': [1, 1], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'N'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 2], 'temporal_value': [32, 192], 'spatial_value': [4, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>32</v>
       </c>
       <c r="C43" t="n">
-        <v>-282746880</v>
+        <v>-10796032.125</v>
       </c>
       <c r="D43" t="n">
-        <v>-16688.75625</v>
+        <v>-16327.3659375</v>
       </c>
       <c r="E43" t="n">
-        <v>7894971883847.68</v>
+        <v>200126151334.43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': []}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 2], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [2, 1, 2], 'spatial_postfix': [3, 2, 3], 'temporal_value': [2, 12, 32], 'spatial_value': [2, 32, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>32</v>
       </c>
       <c r="C44" t="n">
-        <v>-261910528</v>
+        <v>-18683392.09375</v>
       </c>
       <c r="D44" t="n">
-        <v>-16525.5365625</v>
+        <v>-29810.596875</v>
       </c>
       <c r="E44" t="n">
-        <v>7753325114818.56</v>
+        <v>1486877559868.782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [8, 8], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [2, 1], 'spatial_postfix': [3, 3, 2], 'temporal_value': [3, 8], 'spatial_value': [16, 8, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>32</v>
       </c>
       <c r="C45" t="n">
-        <v>-290562048</v>
+        <v>-14883584.09375</v>
       </c>
       <c r="D45" t="n">
-        <v>-16878.6415625</v>
+        <v>-17881.24125</v>
       </c>
       <c r="E45" t="n">
-        <v>6411944016936.96</v>
+        <v>430862608867.0181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 128], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['C', 'N'], 'temporal_postfix': [0], 'spatial_postfix': [1, 1], 'temporal_value': [2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 3, 2], 'temporal_value': [48, 8], 'spatial_value': [4, 32, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>-231972864</v>
+        <v>-15667200.0625</v>
       </c>
       <c r="D46" t="n">
-        <v>-17863.360625</v>
+        <v>-22144.238125</v>
       </c>
       <c r="E46" t="n">
-        <v>5458597008261.12</v>
+        <v>517344469782.2247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 128], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['C', 'N'], 'temporal_postfix': [1], 'spatial_postfix': [0, 1], 'temporal_value': [8], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [2, 2, 1], 'spatial_postfix': [3, 2], 'temporal_value': [6, 2, 8], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>32</v>
       </c>
       <c r="C47" t="n">
-        <v>-355065856</v>
+        <v>-14676224.03125</v>
       </c>
       <c r="D47" t="n">
-        <v>-16650.09625</v>
+        <v>-20338.47</v>
       </c>
       <c r="E47" t="n">
-        <v>6341019317452.8</v>
+        <v>423254204893.0784</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['N'], 'temporal_postfix': [0], 'spatial_postfix': [1], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'N', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 2, 1], 'spatial_postfix': [3, 2], 'temporal_value': [192, 4, 2], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>-341213184</v>
+        <v>-25447936.0625</v>
       </c>
       <c r="D48" t="n">
-        <v>-15918.9134375</v>
+        <v>-21040.0740625</v>
       </c>
       <c r="E48" t="n">
-        <v>7294900059340.8</v>
+        <v>641757404354.8652</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [8, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [2, 0, 3], 'spatial_postfix': [3, 1], 'temporal_value': [6, 16, 4], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>32</v>
       </c>
       <c r="C49" t="n">
-        <v>-337428480</v>
+        <v>-14642176.09375</v>
       </c>
       <c r="D49" t="n">
-        <v>-12524.5015625</v>
+        <v>-15792.96125</v>
       </c>
       <c r="E49" t="n">
-        <v>6220826220298.24</v>
+        <v>270171638650.3475</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [3, 0, 1], 'spatial_postfix': [1, 2], 'temporal_value': [4, 8, 96], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>32</v>
       </c>
       <c r="C50" t="n">
-        <v>-298926080</v>
+        <v>-12891904.125</v>
       </c>
       <c r="D50" t="n">
-        <v>-14968.35</v>
+        <v>-17516.7728125</v>
       </c>
       <c r="E50" t="n">
-        <v>4921377912422.4</v>
+        <v>315986443699.4191</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 256], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['C'], 'temporal_postfix': [2, 0], 'spatial_postfix': [1], 'temporal_value': [48, 4], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>32</v>
       </c>
       <c r="C51" t="n">
-        <v>-321126400</v>
+        <v>-16799744.09375</v>
       </c>
       <c r="D51" t="n">
-        <v>-16775.5634375</v>
+        <v>-23085.679375</v>
       </c>
       <c r="E51" t="n">
-        <v>6392685541212.16</v>
+        <v>553698749728.8975</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['K'], 'temporal_postfix': [0, 1], 'spatial_postfix': [2], 'temporal_value': [2, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 1, 3], 'spatial_postfix': [2], 'temporal_value': [16, 2, 12], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>32</v>
       </c>
       <c r="C52" t="n">
-        <v>-320081920</v>
+        <v>-13967360.03125</v>
       </c>
       <c r="D52" t="n">
-        <v>-17395.8915625</v>
+        <v>-16145.3009375</v>
       </c>
       <c r="E52" t="n">
-        <v>6118086285230.08</v>
+        <v>299021756956.7228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': ['K', 'N', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [0], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [192, 8], 'spatial_value': [8, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>-314540032</v>
+        <v>-14376960.15625</v>
       </c>
       <c r="D53" t="n">
-        <v>-15183.85125</v>
+        <v>-16884.2415625</v>
       </c>
       <c r="E53" t="n">
-        <v>5339720466595.84</v>
+        <v>297320874272.7947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': ['K', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [3], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'K', 'N'], 'temporal_postfix': [0, 2, 2], 'spatial_postfix': [1, 3, 3], 'temporal_value': [128, 8, 4], 'spatial_value': [8, 8, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>32</v>
       </c>
       <c r="C54" t="n">
-        <v>-278765568</v>
+        <v>-16787456.0625</v>
       </c>
       <c r="D54" t="n">
-        <v>-13072.83375</v>
+        <v>-19943.840625</v>
       </c>
       <c r="E54" t="n">
-        <v>4239928481218.56</v>
+        <v>468605273569.1263</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'N'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [24, 128], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [0, 1], 'spatial_postfix': [1, 2], 'temporal_value': [16, 32], 'spatial_value': [64, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>32</v>
       </c>
       <c r="C55" t="n">
-        <v>-294592512</v>
+        <v>-15394816.125</v>
       </c>
       <c r="D55" t="n">
-        <v>-28819.7503125</v>
+        <v>-17891.2990625</v>
       </c>
       <c r="E55" t="n">
-        <v>35355031091937.28</v>
+        <v>327630766695.0444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [24, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [2, 1], 'temporal_value': [32, 16], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>32</v>
       </c>
       <c r="C56" t="n">
-        <v>-288006144</v>
+        <v>-13904896.15625</v>
       </c>
       <c r="D56" t="n">
-        <v>-14741.49375</v>
+        <v>-18091.3303125</v>
       </c>
       <c r="E56" t="n">
-        <v>4586488978063.36</v>
+        <v>287111153436.5244</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [24, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [2, 1], 'temporal_value': [2, 8], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'N', 'K'], 'temporal_postfix': [2, 1, 3], 'spatial_postfix': [3, 2, 4], 'temporal_value': [2, 4, 8], 'spatial_value': [32, 2, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>32</v>
       </c>
       <c r="C57" t="n">
-        <v>-362872832</v>
+        <v>-16023552.15625</v>
       </c>
       <c r="D57" t="n">
-        <v>-15515.104375</v>
+        <v>-17668.179375</v>
       </c>
       <c r="E57" t="n">
-        <v>8837868194037.76</v>
+        <v>342114144065.7881</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['N', 'C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [24, 8], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['K', 'N'], 'temporal_postfix': [], 'spatial_postfix': [1, 1], 'temporal_value': [], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'C', 'K'], 'spatial': ['N', 'C', 'K'], 'temporal_postfix': [2, 0, 2], 'spatial_postfix': [3, 1, 3], 'temporal_value': [8, 256, 4], 'spatial_value': [4, 4, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>32</v>
       </c>
       <c r="C58" t="n">
-        <v>-309460992</v>
+        <v>-17463808.03125</v>
       </c>
       <c r="D58" t="n">
-        <v>-17684.1303125</v>
+        <v>-22679.6609375</v>
       </c>
       <c r="E58" t="n">
-        <v>6874391568957.439</v>
+        <v>989984406523.86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K']}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [256, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['C', 'N'], 'temporal_postfix': [1, 0, 3], 'spatial_postfix': [1, 4], 'temporal_value': [12, 8, 8], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>32</v>
       </c>
       <c r="C59" t="n">
-        <v>-253927424</v>
+        <v>-17705472.15625</v>
       </c>
       <c r="D59" t="n">
-        <v>-13767.586875</v>
+        <v>-21725.08375</v>
       </c>
       <c r="E59" t="n">
-        <v>4560285187276.8</v>
+        <v>593694588623.9659</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 8], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['K'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 2, 0], 'spatial_postfix': [3, 1], 'temporal_value': [64, 6, 16], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>-296005632</v>
+        <v>-15509504.15625</v>
       </c>
       <c r="D60" t="n">
-        <v>-14048.98875</v>
+        <v>-22301.1546875</v>
       </c>
       <c r="E60" t="n">
-        <v>5375677492224</v>
+        <v>526232082306.7216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [1, 1], 'temporal_value': [4, 8], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 2, 3], 'temporal_value': [2, 32], 'spatial_value': [2, 64, 2]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [4], 'spatial_postfix': [], 'temporal_value': [3], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>32</v>
       </c>
       <c r="C61" t="n">
-        <v>-239386624</v>
+        <v>-13883136.09375</v>
       </c>
       <c r="D61" t="n">
-        <v>-12971.88875</v>
+        <v>-18012.6121875</v>
       </c>
       <c r="E61" t="n">
-        <v>3767848881192.96</v>
+        <v>320690754876.0532</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [8, 6], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'N'], 'spatial': ['C'], 'temporal_postfix': [0, 3], 'spatial_postfix': [1], 'temporal_value': [4, 2], 'spatial_value': [256]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [2], 'spatial_postfix': [], 'temporal_value': [8], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>32</v>
       </c>
       <c r="C62" t="n">
-        <v>-297992192</v>
+        <v>-13067520.0625</v>
       </c>
       <c r="D62" t="n">
-        <v>-16317.3890625</v>
+        <v>-19032.3546875</v>
       </c>
       <c r="E62" t="n">
-        <v>6324682713497.6</v>
+        <v>335885965498.0722</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [96, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['K'], 'temporal_postfix': [0], 'spatial_postfix': [1], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [16, 64], 'spatial_value': [8, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>-282664960</v>
+        <v>-18287616.09375</v>
       </c>
       <c r="D63" t="n">
-        <v>-14031.9646875</v>
+        <v>-20587.9015625</v>
       </c>
       <c r="E63" t="n">
-        <v>4218512452812.8</v>
+        <v>553275773344.4766</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['K', 'N'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [96, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C'], 'temporal_postfix': [0, 2, 2], 'spatial_postfix': [1], 'temporal_value': [4, 8, 16], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>32</v>
       </c>
       <c r="C64" t="n">
-        <v>-257130496</v>
+        <v>-15674112.09375</v>
       </c>
       <c r="D64" t="n">
-        <v>-16655.7390625</v>
+        <v>-22414.8828125</v>
       </c>
       <c r="E64" t="n">
-        <v>5208230445629.44</v>
+        <v>438505720883.8047</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K', 'C', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K', 'C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [128, 8, 3], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 2, 3], 'temporal_value': [64, 4], 'spatial_value': [2, 16, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>32</v>
       </c>
       <c r="C65" t="n">
-        <v>-357203968</v>
+        <v>-20180480.03125</v>
       </c>
       <c r="D65" t="n">
-        <v>-14642.65625</v>
+        <v>-20126.4765625</v>
       </c>
       <c r="E65" t="n">
-        <v>5736052527595.521</v>
+        <v>485661971028.5541</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [16, 2, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [1, 2], 'temporal_value': [2, 16], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K'], 'temporal_postfix': [3, 2], 'spatial_postfix': [4, 2, 3], 'temporal_value': [4, 24], 'spatial_value': [4, 16, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>32</v>
       </c>
       <c r="C66" t="n">
-        <v>-270008320</v>
+        <v>-17286144.0625</v>
       </c>
       <c r="D66" t="n">
-        <v>-14517.953125</v>
+        <v>-19359.41125</v>
       </c>
       <c r="E66" t="n">
-        <v>4630308366090.24</v>
+        <v>479710775048.5422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [16, 32, 3], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'C'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [16, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K'], 'temporal_postfix': [3, 1], 'spatial_postfix': [4, 2, 2], 'temporal_value': [2, 32], 'spatial_value': [2, 2, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>32</v>
       </c>
       <c r="C67" t="n">
-        <v>-241958912</v>
+        <v>-14201856.03125</v>
       </c>
       <c r="D67" t="n">
-        <v>-12196.3475</v>
+        <v>-18707.45625</v>
       </c>
       <c r="E67" t="n">
-        <v>2876924576808.96</v>
+        <v>327342597755.7922</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': []}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [16, 4, 4], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'N'], 'spatial': ['N'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [4, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['K'], 'temporal_postfix': [3, 1, 2], 'spatial_postfix': [2], 'temporal_value': [2, 3, 64], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>32</v>
       </c>
       <c r="C68" t="n">
-        <v>-323813376</v>
+        <v>-15572736</v>
       </c>
       <c r="D68" t="n">
-        <v>-16983.884375</v>
+        <v>-21711.86625</v>
       </c>
       <c r="E68" t="n">
-        <v>7963953992171.52</v>
+        <v>706533795084.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [32, 2, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 1], 'temporal_value': [3, 2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'C'], 'spatial': ['N', 'C', 'K'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 3, 3], 'temporal_value': [4, 32], 'spatial_value': [2, 8, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>32</v>
       </c>
       <c r="C69" t="n">
-        <v>-282992640</v>
+        <v>-13137920.09375</v>
       </c>
       <c r="D69" t="n">
-        <v>-15257.1575</v>
+        <v>-17148.7009375</v>
       </c>
       <c r="E69" t="n">
-        <v>5034216177623.04</v>
+        <v>309660605063.4244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['K']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [32, 4, 6], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1, 2], 'spatial_postfix': [2, 2], 'temporal_value': [8, 64, 4], 'spatial_value': [64, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>32</v>
       </c>
       <c r="C70" t="n">
-        <v>-291266560</v>
+        <v>-13122048.03125</v>
       </c>
       <c r="D70" t="n">
-        <v>-17335.308125</v>
+        <v>-15865.9771875</v>
       </c>
       <c r="E70" t="n">
-        <v>5480031999344.64</v>
+        <v>223809367673</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['N', 'C', 'K']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [32, 8, 3], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'K'], 'temporal_postfix': [1, 3, 1], 'spatial_postfix': [2, 2], 'temporal_value': [4, 2, 128], 'spatial_value': [32, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>32</v>
       </c>
       <c r="C71" t="n">
-        <v>-218972160</v>
+        <v>-16578624.0625</v>
       </c>
       <c r="D71" t="n">
-        <v>-13002.3775</v>
+        <v>-18424.2671875</v>
       </c>
       <c r="E71" t="n">
-        <v>3157348463083.52</v>
+        <v>518980346507.2512</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C'], 'spatial': ['N']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'N'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [64, 2, 12], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [8, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [2, 3, 1], 'spatial_postfix': [3, 4, 2], 'temporal_value': [4, 8, 2], 'spatial_value': [32, 2, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>32</v>
       </c>
       <c r="C72" t="n">
-        <v>-347389952</v>
+        <v>-14591488.03125</v>
       </c>
       <c r="D72" t="n">
-        <v>-15484.5725</v>
+        <v>-20665.1065625</v>
       </c>
       <c r="E72" t="n">
-        <v>6466314220339.2</v>
+        <v>407201445107.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C', 'K'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'C', 'K'], 'spatial': ['N', 'K'], 'temporal_postfix': [1, 1, 0], 'spatial_postfix': [2, 1], 'temporal_value': [4, 4, 3], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [2], 'spatial_postfix': [3, 3, 2], 'temporal_value': [64], 'spatial_value': [8, 2, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>32</v>
       </c>
       <c r="C73" t="n">
-        <v>-304037888</v>
+        <v>-15803392.09375</v>
       </c>
       <c r="D73" t="n">
-        <v>-14452.915</v>
+        <v>-17520.3984375</v>
       </c>
       <c r="E73" t="n">
-        <v>6253344713441.28</v>
+        <v>312450640191.3613</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'N', 'C'], 'spatial': ['K'], 'temporal_postfix': [0, 1, 1], 'spatial_postfix': [1], 'temporal_value': [48, 4, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'N', 'K'], 'temporal_postfix': [2, 2, 2], 'spatial_postfix': [3, 3, 3], 'temporal_value': [2, 2, 4], 'spatial_value': [8, 8, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>32</v>
       </c>
       <c r="C74" t="n">
-        <v>-242835456</v>
+        <v>-13067264.03125</v>
       </c>
       <c r="D74" t="n">
-        <v>-13450.7571875</v>
+        <v>-17816.76875</v>
       </c>
       <c r="E74" t="n">
-        <v>4385105586012.16</v>
+        <v>254282899496.3081</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'N'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'C'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'C', 'K'], 'spatial': ['N'], 'temporal_postfix': [1, 1, 0], 'spatial_postfix': [2], 'temporal_value': [4, 2, 6], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2, 3, 3], 'temporal_value': [16, 8], 'spatial_value': [32, 2, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>32</v>
       </c>
       <c r="C75" t="n">
-        <v>-388145152</v>
+        <v>-13606656.1875</v>
       </c>
       <c r="D75" t="n">
-        <v>-17619</v>
+        <v>-17190.898125</v>
       </c>
       <c r="E75" t="n">
-        <v>8024051531530.24</v>
+        <v>276574911489.055</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [32, 2, 8], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'N', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 1, 1], 'spatial_postfix': [2], 'temporal_value': [16, 8, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [2], 'spatial_postfix': [3, 2, 3], 'temporal_value': [12], 'spatial_value': [64, 2, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>-276889600</v>
+        <v>-15726592.125</v>
       </c>
       <c r="D76" t="n">
-        <v>-13906.0796875</v>
+        <v>-18995.9378125</v>
       </c>
       <c r="E76" t="n">
-        <v>4078339150970.88</v>
+        <v>339000215436.4691</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['C', 'N', 'K']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': [], 'temporal_postfix': [0, 0, 0], 'spatial_postfix': [], 'temporal_value': [8, 48, 2], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['C', 'N'], 'temporal_postfix': [], 'spatial_postfix': [1, 1], 'temporal_value': [], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'N', 'K'], 'spatial': ['C', 'N'], 'temporal_postfix': [2, 2, 1], 'spatial_postfix': [3, 3], 'temporal_value': [2, 16, 64], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>32</v>
       </c>
       <c r="C77" t="n">
-        <v>-303128576</v>
+        <v>-12017664.09375</v>
       </c>
       <c r="D77" t="n">
-        <v>-17093.1021875</v>
+        <v>-14508.0696875</v>
       </c>
       <c r="E77" t="n">
-        <v>6970078458347.52</v>
+        <v>216542560890.3853</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['C', 'K'], 'spatial': ['C'], 'temporal_postfix': [0, 1], 'spatial_postfix': [1], 'temporal_value': [16, 3], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C', 'N', 'K'], 'temporal_postfix': [2, 2], 'spatial_postfix': [3, 1, 3], 'temporal_value': [8, 16], 'spatial_value': [2, 32, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>32</v>
       </c>
       <c r="C78" t="n">
-        <v>-239067136</v>
+        <v>-22731776</v>
       </c>
       <c r="D78" t="n">
-        <v>-14738.4240625</v>
+        <v>-19496.2846875</v>
       </c>
       <c r="E78" t="n">
-        <v>3777915132477.44</v>
+        <v>618944075484.1599</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [0], 'temporal_value': [8], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 1, 2], 'spatial_postfix': [2, 2], 'temporal_value': [96, 2, 4], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>32</v>
       </c>
       <c r="C79" t="n">
-        <v>-372277248</v>
+        <v>-16667136.0625</v>
       </c>
       <c r="D79" t="n">
-        <v>-13330.001875</v>
+        <v>-16956.2028125</v>
       </c>
       <c r="E79" t="n">
-        <v>6349522519654.4</v>
+        <v>326421420404.4131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['K', 'C', 'N']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'N']}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 0], 'temporal_value': [2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [3, 1, 1], 'spatial_postfix': [4, 2, 2], 'temporal_value': [4, 48, 16], 'spatial_value': [2, 4, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>-329932800</v>
+        <v>-14238464.03125</v>
       </c>
       <c r="D80" t="n">
-        <v>-15398.7684375</v>
+        <v>-22777.00375</v>
       </c>
       <c r="E80" t="n">
-        <v>5389346611445.76</v>
+        <v>565980554229.0931</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['K', 'N'], 'temporal_postfix': [], 'spatial_postfix': [1, 1], 'temporal_value': [], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'C'], 'temporal_postfix': [0, 2], 'spatial_postfix': [2, 1], 'temporal_value': [64, 96], 'spatial_value': [16, 16]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>32</v>
       </c>
       <c r="C81" t="n">
-        <v>-309739520</v>
+        <v>-16050176.03125</v>
       </c>
       <c r="D81" t="n">
-        <v>-14113.4009375</v>
+        <v>-20656.79625</v>
       </c>
       <c r="E81" t="n">
-        <v>5778671121530.88</v>
+        <v>495424655973.6265</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': []}, 'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 16], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 0, 2], 'spatial_postfix': [2, 1, 3], 'temporal_value': [12, 128, 4], 'spatial_value': [16, 8, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>32</v>
       </c>
       <c r="C82" t="n">
-        <v>-279158784</v>
+        <v>-11766784.09375</v>
       </c>
       <c r="D82" t="n">
-        <v>-13964.74</v>
+        <v>-16468.0021875</v>
       </c>
       <c r="E82" t="n">
-        <v>4602851992043.52</v>
+        <v>235094746805.2903</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['N', 'K'], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['C', 'K', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['N', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 24], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1, 0, 2], 'spatial_postfix': [2, 1], 'temporal_value': [32, 16, 8], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>32</v>
       </c>
       <c r="C83" t="n">
-        <v>-255287296</v>
+        <v>-19842816.09375</v>
       </c>
       <c r="D83" t="n">
-        <v>-13815.8240625</v>
+        <v>-25649.5278125</v>
       </c>
       <c r="E83" t="n">
-        <v>4337492060733.44</v>
+        <v>993337708217.8792</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['N', 'K'], 'spatial': ['N', 'C']}, 'WeightBuffer': {'temporal': ['C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [16, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['K'], 'temporal_postfix': [1], 'spatial_postfix': [2], 'temporal_value': [12], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'C'], 'spatial': ['C', 'K'], 'temporal_postfix': [1, 0], 'spatial_postfix': [1, 3], 'temporal_value': [32, 8], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>32</v>
       </c>
       <c r="C84" t="n">
-        <v>-226123776</v>
+        <v>-16868096.0625</v>
       </c>
       <c r="D84" t="n">
-        <v>-12743.9628125</v>
+        <v>-19044.9496875</v>
       </c>
       <c r="E84" t="n">
-        <v>3550003797360.64</v>
+        <v>403302323672.5506</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['N'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['N', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 0], 'temporal_value': [2], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['K', 'N', 'C'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2, 3, 2], 'temporal_value': [48, 16], 'spatial_value': [2, 4, 32]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [3], 'spatial_postfix': [], 'temporal_value': [2], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>32</v>
       </c>
       <c r="C85" t="n">
-        <v>-330145792</v>
+        <v>-12272640.125</v>
       </c>
       <c r="D85" t="n">
-        <v>-17029.903125</v>
+        <v>-18364.1759375</v>
       </c>
       <c r="E85" t="n">
-        <v>9631887077048.32</v>
+        <v>363545893334.785</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 16], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N', 'C'], 'temporal_postfix': [], 'spatial_postfix': [1, 0], 'temporal_value': [], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 1, 2], 'spatial_postfix': [2, 2, 3], 'temporal_value': [12, 64, 4], 'spatial_value': [16, 8, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>-283926528</v>
+        <v>-20306688.15625</v>
       </c>
       <c r="D86" t="n">
-        <v>-19437.274375</v>
+        <v>-22116.09125</v>
       </c>
       <c r="E86" t="n">
-        <v>9117627038679.041</v>
+        <v>969120986777.0677</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': []}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 24], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C', 'N'], 'spatial': ['K'], 'temporal_postfix': [1, 0, 1], 'spatial_postfix': [2], 'temporal_value': [2, 32, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['N'], 'spatial': ['K', 'C'], 'temporal_postfix': [2], 'spatial_postfix': [3, 1], 'temporal_value': [4], 'spatial_value': [8, 32]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [4], 'spatial_postfix': [], 'temporal_value': [2], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>32</v>
       </c>
       <c r="C87" t="n">
-        <v>-269115392</v>
+        <v>-15335424.09375</v>
       </c>
       <c r="D87" t="n">
-        <v>-14986.5784375</v>
+        <v>-24959.59875</v>
       </c>
       <c r="E87" t="n">
-        <v>5009769909944.32</v>
+        <v>1068797160200.296</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['K']}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [32, 24], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [0], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['N'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [1], 'temporal_value': [16], 'spatial_value': [256]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [2], 'spatial_postfix': [], 'temporal_value': [64], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>-285065216</v>
+        <v>-20895744.1875</v>
       </c>
       <c r="D88" t="n">
-        <v>-11488.79375</v>
+        <v>-23856.6975</v>
       </c>
       <c r="E88" t="n">
-        <v>3689824332513.28</v>
+        <v>791245236471.3007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 128], 'spatial_value': []}, 'SMEM': {'temporal': ['K'], 'spatial': ['C'], 'temporal_postfix': [1], 'spatial_postfix': [0], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'K'], 'temporal_postfix': [1, 2], 'spatial_postfix': [1, 3], 'temporal_value': [256, 6], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>32</v>
       </c>
       <c r="C89" t="n">
-        <v>-344801280</v>
+        <v>-12808704.09375</v>
       </c>
       <c r="D89" t="n">
-        <v>-17675.876875</v>
+        <v>-22064.1396875</v>
       </c>
       <c r="E89" t="n">
-        <v>7021662225285.12</v>
+        <v>554861887283.1907</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': ['N', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': ['C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 256], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['C'], 'temporal_postfix': [0], 'spatial_postfix': [1], 'temporal_value': [4], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [1, 2, 1], 'spatial_postfix': [2, 3, 2], 'temporal_value': [6, 16, 4], 'spatial_value': [2, 4, 32]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>32</v>
       </c>
       <c r="C90" t="n">
-        <v>-257593344</v>
+        <v>-16175104</v>
       </c>
       <c r="D90" t="n">
-        <v>-13568.3575</v>
+        <v>-19983.288125</v>
       </c>
       <c r="E90" t="n">
-        <v>3698689083064.32</v>
+        <v>462873919477.76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'WeightBuffer': {'temporal': [], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 64], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['K', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [1, 0], 'temporal_value': [4], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'C', 'N'], 'temporal_postfix': [2, 1, 2], 'spatial_postfix': [3, 2, 3], 'temporal_value': [4, 8, 16], 'spatial_value': [2, 64, 2]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [4], 'spatial_postfix': [], 'temporal_value': [3], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>32</v>
       </c>
       <c r="C91" t="n">
-        <v>-354902016</v>
+        <v>-17897472.0625</v>
       </c>
       <c r="D91" t="n">
-        <v>-14935.838125</v>
+        <v>-20245.053125</v>
       </c>
       <c r="E91" t="n">
-        <v>7704595142737.92</v>
+        <v>415920796036.3912</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 64], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N', 'K'], 'temporal_postfix': [], 'spatial_postfix': [1, 1], 'temporal_value': [], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'C'], 'temporal_postfix': [0, 2], 'spatial_postfix': [2, 1], 'temporal_value': [256, 24], 'spatial_value': [64, 4]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>32</v>
       </c>
       <c r="C92" t="n">
-        <v>-227074048</v>
+        <v>-15809280.03125</v>
       </c>
       <c r="D92" t="n">
-        <v>-14234.2640625</v>
+        <v>-19202.9028125</v>
       </c>
       <c r="E92" t="n">
-        <v>3382985731932.16</v>
+        <v>378928854811.8078</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['N', 'C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C', 'K']}, 'DRAM': {'temporal': ['C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [4, 64], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [2, 1], 'temporal_value': [48, 128], 'spatial_value': [32, 8]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>32</v>
       </c>
       <c r="C93" t="n">
-        <v>-285728768</v>
+        <v>-18096128.0625</v>
       </c>
       <c r="D93" t="n">
-        <v>-14894.5990625</v>
+        <v>-20342.6340625</v>
       </c>
       <c r="E93" t="n">
-        <v>4789476053975.04</v>
+        <v>431495061259.9153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': ['N'], 'spatial': []}, 'AccumulationBuffer': {'temporal': [], 'spatial': ['K', 'C']}, 'WeightBuffer': {'temporal': ['N', 'C', 'K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['C'], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'K', 'C'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['K'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [2, 16], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'C'], 'spatial': ['N', 'C'], 'temporal_postfix': [2, 0], 'spatial_postfix': [3, 1], 'temporal_value': [2, 8], 'spatial_value': [2, 128]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [3], 'spatial_postfix': [], 'temporal_value': [3], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>32</v>
       </c>
       <c r="C94" t="n">
-        <v>-289865728</v>
+        <v>-16569600.03125</v>
       </c>
       <c r="D94" t="n">
-        <v>-13401.1859375</v>
+        <v>-16643.306875</v>
       </c>
       <c r="E94" t="n">
-        <v>5221087558041.6</v>
+        <v>322150481576.2562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['C', 'K'], 'spatial': ['C', 'N']}, 'WeightBuffer': {'temporal': ['C', 'N'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['N']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 16], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['K'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [4, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['C'], 'temporal_postfix': [2, 3, 0], 'spatial_postfix': [1], 'temporal_value': [2, 24, 4], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>32</v>
       </c>
       <c r="C95" t="n">
-        <v>-343556096</v>
+        <v>-16570368.0625</v>
       </c>
       <c r="D95" t="n">
-        <v>-16093.6846875</v>
+        <v>-25270.1446875</v>
       </c>
       <c r="E95" t="n">
-        <v>6120061237985.28</v>
+        <v>764653055389.894</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'C', 'N'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['N', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['K']}, 'DRAM': {'temporal': ['C', 'K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 192], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'C'], 'spatial': ['C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [1], 'temporal_value': [8, 4], 'spatial_value': [4]}, 'RF': {'temporal': ['K'], 'spatial': ['K', 'C'], 'temporal_postfix': [1], 'spatial_postfix': [2, 2], 'temporal_value': [4], 'spatial_value': [4, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>32</v>
       </c>
       <c r="C96" t="n">
-        <v>-215584768</v>
+        <v>-18708480.09375</v>
       </c>
       <c r="D96" t="n">
-        <v>-13488.6803125</v>
+        <v>-27153.4609375</v>
       </c>
       <c r="E96" t="n">
-        <v>3635291809341.44</v>
+        <v>655381617132.7644</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K', 'N', 'C'], 'spatial': ['K', 'N']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['K', 'C']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 24], 'spatial_value': []}, 'SMEM': {'temporal': ['C'], 'spatial': ['N'], 'temporal_postfix': [0], 'spatial_postfix': [1], 'temporal_value': [2], 'spatial_value': [4]}, 'RF': {'temporal': ['N', 'K', 'C'], 'spatial': ['K', 'C'], 'temporal_postfix': [2, 1, 1], 'spatial_postfix': [2, 2], 'temporal_value': [2, 64, 4], 'spatial_value': [2, 128]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>32</v>
       </c>
       <c r="C97" t="n">
-        <v>-257323008</v>
+        <v>-14648320.0625</v>
       </c>
       <c r="D97" t="n">
-        <v>-16577.6978125</v>
+        <v>-18891.4471875</v>
       </c>
       <c r="E97" t="n">
-        <v>4868600554455.04</v>
+        <v>337127320652.5781</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['K'], 'spatial': ['N', 'C']}, 'WeightBuffer': {'temporal': ['N', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['C', 'N', 'K'], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [64, 24], 'spatial_value': []}, 'SMEM': {'temporal': ['N', 'K'], 'spatial': ['K'], 'temporal_postfix': [1, 1], 'spatial_postfix': [2], 'temporal_value': [4, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['K', 'C'], 'spatial': ['N', 'K', 'C'], 'temporal_postfix': [3, 0], 'spatial_postfix': [2, 4, 1], 'temporal_value': [8, 16], 'spatial_value': [2, 2, 64]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>32</v>
       </c>
       <c r="C98" t="n">
-        <v>-310861824</v>
+        <v>-22561024.0625</v>
       </c>
       <c r="D98" t="n">
-        <v>-19315.57125</v>
+        <v>-34120.4384375</v>
       </c>
       <c r="E98" t="n">
-        <v>8654911880396.8</v>
+        <v>2062233798792.293</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['N', 'C'], 'spatial': ['C']}, 'WeightBuffer': {'temporal': ['K', 'C'], 'spatial': []}, 'InputBuffer': {'temporal': ['K'], 'spatial': []}, 'GlobalBuffer': {'temporal': ['K'], 'spatial': ['C']}, 'DRAM': {'temporal': ['K', 'N'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [8, 24], 'spatial_value': []}, 'SMEM': {'temporal': [], 'spatial': ['N'], 'temporal_postfix': [], 'spatial_postfix': [1], 'temporal_value': [], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K', 'N'], 'spatial': ['C', 'N'], 'temporal_postfix': [0, 1, 2], 'spatial_postfix': [1, 3], 'temporal_value': [8, 128, 8], 'spatial_value': [128, 2]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>32</v>
       </c>
       <c r="C99" t="n">
-        <v>-288178176</v>
+        <v>-21169920.0625</v>
       </c>
       <c r="D99" t="n">
-        <v>-15481.273125</v>
+        <v>-26068.565625</v>
       </c>
       <c r="E99" t="n">
-        <v>6435883319623.681</v>
+        <v>825271188573.7278</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>{'Registers': {'temporal': [], 'spatial': []}, 'AccumulationBuffer': {'temporal': ['N', 'C'], 'spatial': ['N', 'K']}, 'WeightBuffer': {'temporal': ['K'], 'spatial': []}, 'InputBuffer': {'temporal': [], 'spatial': []}, 'GlobalBuffer': {'temporal': [], 'spatial': ['C']}, 'DRAM': {'temporal': ['N', 'C', 'K'], 'spatial': []}}</t>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['K', 'C'], 'spatial': ['C'], 'temporal_postfix': [1, 0], 'spatial_postfix': [1], 'temporal_value': [3, 2], 'spatial_value': [4]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['N', 'K'], 'temporal_postfix': [2, 2], 'spatial_postfix': [1, 3], 'temporal_value': [128, 4], 'spatial_value': [64, 4]}, 'LRF': {'temporal': ['K'], 'spatial': [], 'temporal_postfix': [4], 'spatial_postfix': [], 'temporal_value': [2], 'spatial_value': []}}</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>32</v>
       </c>
       <c r="C100" t="n">
-        <v>-255705088</v>
+        <v>-14669568.09375</v>
       </c>
       <c r="D100" t="n">
-        <v>-16121.77125</v>
+        <v>-21239.58375</v>
       </c>
       <c r="E100" t="n">
-        <v>4639339384012.8</v>
+        <v>388711232024.6241</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>{'DRAM': {'temporal': ['N', 'K'], 'spatial': [], 'temporal_postfix': [0, 0], 'spatial_postfix': [], 'temporal_value': [8, 32], 'spatial_value': []}, 'SMEM': {'temporal': ['N'], 'spatial': ['C', 'K'], 'temporal_postfix': [1], 'spatial_postfix': [0, 1], 'temporal_value': [64], 'spatial_value': [2, 2]}, 'RF': {'temporal': ['C', 'K'], 'spatial': ['C'], 'temporal_postfix': [1, 2], 'spatial_postfix': [2], 'temporal_value': [2, 48], 'spatial_value': [256]}, 'LRF': {'temporal': [], 'spatial': [], 'temporal_postfix': [], 'spatial_postfix': [], 'temporal_value': [], 'spatial_value': []}}</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>32</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-19827968.09375</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-19505.1853125</v>
+      </c>
+      <c r="E101" t="n">
+        <v>419615737794.6044</v>
       </c>
     </row>
   </sheetData>
